--- a/src/main/java/com/AutoP/testdata/DataAutoPractice.xlsx
+++ b/src/main/java/com/AutoP/testdata/DataAutoPractice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE46A8-3244-4F79-A0ED-7F7DBC3BCCC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172AAFE4-58CD-4FB8-ACD9-5B5FA2154479}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4F066220-7496-4EB4-AB9A-9E885AFDA2B4}"/>
   </bookViews>
@@ -105,16 +105,16 @@
     <t>Anna Maria</t>
   </si>
   <si>
-    <t>kil56@test.com</t>
-  </si>
-  <si>
-    <t>pil56@test.com</t>
-  </si>
-  <si>
-    <t>jil55@gmail.com</t>
-  </si>
-  <si>
-    <t>nil55@test.com</t>
+    <t>kill566@test.com</t>
+  </si>
+  <si>
+    <t>pill566@test.com</t>
+  </si>
+  <si>
+    <t>jill565@gmail.com</t>
+  </si>
+  <si>
+    <t>nill55@test.com</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/AutoP/testdata/DataAutoPractice.xlsx
+++ b/src/main/java/com/AutoP/testdata/DataAutoPractice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172AAFE4-58CD-4FB8-ACD9-5B5FA2154479}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E2B71C-4B0F-4A13-9927-3834AA605089}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4F066220-7496-4EB4-AB9A-9E885AFDA2B4}"/>
   </bookViews>
@@ -105,16 +105,16 @@
     <t>Anna Maria</t>
   </si>
   <si>
-    <t>kill566@test.com</t>
-  </si>
-  <si>
-    <t>pill566@test.com</t>
-  </si>
-  <si>
-    <t>jill565@gmail.com</t>
-  </si>
-  <si>
-    <t>nill55@test.com</t>
+    <t>killl566@test.com</t>
+  </si>
+  <si>
+    <t>ppill566@test.com</t>
+  </si>
+  <si>
+    <t>jilll565@gmail.com</t>
+  </si>
+  <si>
+    <t>nilll55@test.com</t>
   </si>
 </sst>
 </file>
